--- a/Paper/Seimitsu2019/result-sheet-item.xlsx
+++ b/Paper/Seimitsu2019/result-sheet-item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haradayoshiaki/Resarch/Paper/Seimitsu2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C1799E-C41F-A74D-B5C3-8289BEC7DA77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42F5D11-5B63-CD42-B8F4-CBD4E4C9B995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17540" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17540" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="総利益" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="12">
   <si>
     <t>AVE.</t>
   </si>
@@ -52,13 +52,6 @@
     <t>S.D.</t>
   </si>
   <si>
-    <t>オークション主催者の利益</t>
-    <rPh sb="0" eb="2">
-      <t>シュサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>提供企業数</t>
     <rPh sb="0" eb="2">
       <t>テイキョ</t>
@@ -66,9 +59,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>従来手法</t>
+    <t>主催者の利益</t>
     <rPh sb="0" eb="2">
-      <t>ジュウラ</t>
+      <t>リエk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総利益</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収入</t>
+    <rPh sb="0" eb="2">
+      <t>シュウニュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提供企業数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主催者の利益/総利益</t>
+    <rPh sb="0" eb="3">
+      <t>ノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -77,7 +96,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="187" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -87,6 +110,21 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -110,17 +148,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -819,7 +873,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1011,7 +1065,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B8"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1203,7 +1257,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1392,88 +1446,137 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B657A48-93EC-C245-8B02-79E6F2A3FD10}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A11" sqref="A11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>10018.407905061353</v>
-      </c>
-      <c r="C2">
-        <v>7147.6372399075335</v>
-      </c>
-      <c r="D2">
-        <f>B2-C2</f>
-        <v>2870.7706651538192</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>13958.529014796532</v>
+        <v>10018.407905061353</v>
       </c>
       <c r="C3">
-        <v>10456.910731609885</v>
+        <v>7147.6372399075335</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D4" si="0">B3-C3</f>
-        <v>3501.6182831866463</v>
+        <f>B3-C3</f>
+        <v>2870.7706651538192</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>13958.529014796532</v>
+      </c>
+      <c r="C4">
+        <v>10456.910731609885</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">B4-C4</f>
+        <v>3501.6182831866463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>25</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>18379.120374236412</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>14295.949867103971</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>4083.1705071324413</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6">
-        <v>12023.987517190735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7">
-        <v>15660.927096772095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8">
-        <v>19150.694746307749</v>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2870.7706651538192</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6472.8029999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <f>B12/C12</f>
+        <v>0.44351275099115783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3501.6182831866463</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9011.9969999999994</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D14" si="1">B13/C13</f>
+        <v>0.38855075996881117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4083.1705071324413</v>
+      </c>
+      <c r="C14" s="4">
+        <v>11903.63</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3430189368396398</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1972,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
